--- a/inputs/tool/Uganda_ULEARN_4W_Kobo.xlsx
+++ b/inputs/tool/Uganda_ULEARN_4W_Kobo.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -6043,26 +6043,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="162.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="162.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -6227,12 +6227,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -6260,12 +6260,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>154</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -7287,12 +7287,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>146</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>150</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -7737,12 +7737,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -8187,12 +8187,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>310</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>171</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>47</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>102</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>110</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -8637,12 +8637,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>354</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>47</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>98</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>102</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>114</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>122</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>126</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>130</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>138</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>142</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>150</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>154</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -9087,12 +9087,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>398</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>47</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>98</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>102</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>110</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>122</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>126</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>130</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>134</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>142</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>146</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>150</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>158</v>
       </c>
@@ -9537,12 +9537,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>442</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>27</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>171</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>47</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>47</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>98</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>102</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>110</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>114</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>118</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>122</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>126</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>130</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>134</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>138</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>142</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>146</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>150</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>154</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>158</v>
       </c>
@@ -9987,12 +9987,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>486</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>27</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>171</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>47</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>47</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>98</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>102</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>106</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>110</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>114</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>118</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>122</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>126</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>130</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>134</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>138</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>142</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>146</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>150</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>154</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>158</v>
       </c>
@@ -10437,12 +10437,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>530</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>171</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>47</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>47</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>98</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>102</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>106</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>110</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>114</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>118</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>122</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>126</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>130</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>134</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>138</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>142</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>146</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>150</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>154</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>158</v>
       </c>
@@ -10887,12 +10887,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>574</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>579</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>47</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>98</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>102</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>106</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>110</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>114</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>118</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>122</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>126</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>130</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>134</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>138</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>142</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>146</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>150</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>154</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>158</v>
       </c>
@@ -11314,12 +11314,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>620</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>620</v>
       </c>
@@ -11367,17 +11367,17 @@
         <v>626</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>53</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>636</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>60</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>620</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>620</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>64</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>64</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>77</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>84</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>47</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>64</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>98</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>102</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>106</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>110</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>114</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>118</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>122</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>126</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>130</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>134</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>138</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>142</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>146</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>150</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>154</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>158</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>162</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>171</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>47</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>47</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>24</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>98</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>102</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>106</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>110</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>114</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>118</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>122</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>126</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>130</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>134</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>138</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>142</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>146</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>150</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>154</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>158</v>
       </c>
@@ -12475,12 +12475,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>222</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>171</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>47</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>47</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>24</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>98</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>102</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>106</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>110</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>114</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>118</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>122</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>126</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>130</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>134</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>138</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>142</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>146</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>150</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>154</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>158</v>
       </c>
@@ -12928,12 +12928,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>266</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>27</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>171</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>47</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>47</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>98</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>102</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>106</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>114</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>118</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>122</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>126</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>130</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>134</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>138</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>142</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>146</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>150</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>154</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>158</v>
       </c>
@@ -13381,12 +13381,12 @@
         <v>805</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>310</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>171</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>47</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>47</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>98</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>102</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>106</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>110</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>114</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>118</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>122</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>126</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>130</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>134</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>138</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>142</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>146</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>150</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>154</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>158</v>
       </c>
@@ -13834,12 +13834,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>354</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>171</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>47</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>47</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>24</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>98</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>102</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>106</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>110</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>114</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>118</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>122</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>126</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>130</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>134</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>138</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>142</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>146</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>150</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>154</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>158</v>
       </c>
@@ -14287,12 +14287,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>398</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>27</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>171</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>47</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>47</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>24</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>98</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>102</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>106</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>110</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>114</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>118</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>122</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>126</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>130</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>134</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>138</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>142</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>146</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>150</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>154</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>158</v>
       </c>
@@ -14740,12 +14740,12 @@
         <v>940</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>442</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>171</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>47</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>47</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>24</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>98</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>102</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>106</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>110</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>114</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>118</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>122</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>126</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>130</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>134</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>138</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>142</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>146</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>150</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>154</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>158</v>
       </c>
@@ -15193,12 +15193,12 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>486</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>27</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>171</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>47</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>47</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>27</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>24</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>98</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>102</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>106</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>110</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>114</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>118</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>122</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>126</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>130</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>134</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>138</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>142</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>146</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>150</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>154</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>158</v>
       </c>
@@ -15646,12 +15646,12 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>530</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>27</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>171</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>47</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>47</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>27</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>24</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>98</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>102</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>106</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>110</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>114</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>118</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>122</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>126</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>130</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>134</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>138</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>142</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>146</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>150</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>154</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>158</v>
       </c>
@@ -16099,12 +16099,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>574</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>27</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>579</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>47</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>27</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>24</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>98</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>102</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>106</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>110</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>114</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>118</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>122</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>126</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>130</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>134</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>138</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>142</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>146</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>150</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>154</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>158</v>
       </c>
@@ -16529,12 +16529,12 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>27</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>24</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>98</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>102</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>106</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>110</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>114</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>118</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>122</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>126</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>130</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>134</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>138</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>142</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>146</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>150</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>154</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>158</v>
       </c>
@@ -16879,22 +16879,22 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>24</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>15</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>27</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>27</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>27</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>27</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>64</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>27</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>27</v>
       </c>
@@ -17014,12 +17014,12 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1203</v>
       </c>
@@ -17039,11 +17039,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A218" sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="222.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1206</v>
       </c>
@@ -17057,7 +17065,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1208</v>
       </c>
@@ -17068,7 +17076,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1208</v>
       </c>
@@ -17079,7 +17087,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1213</v>
       </c>
@@ -17090,7 +17098,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1213</v>
       </c>
@@ -17101,7 +17109,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1214</v>
       </c>
@@ -17112,7 +17120,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1214</v>
       </c>
@@ -17123,7 +17131,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1218</v>
       </c>
@@ -17134,7 +17142,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1218</v>
       </c>
@@ -17145,7 +17153,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1218</v>
       </c>
@@ -17156,7 +17164,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1218</v>
       </c>
@@ -17167,7 +17175,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1218</v>
       </c>
@@ -17178,7 +17186,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1218</v>
       </c>
@@ -17189,7 +17197,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1218</v>
       </c>
@@ -17200,7 +17208,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1218</v>
       </c>
@@ -17211,7 +17219,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1218</v>
       </c>
@@ -17222,7 +17230,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1237</v>
       </c>
@@ -17233,7 +17241,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1237</v>
       </c>
@@ -17244,7 +17252,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -17255,7 +17263,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -17266,7 +17274,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -17277,7 +17285,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -17288,7 +17296,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -17299,7 +17307,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -17310,7 +17318,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -17321,7 +17329,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -17332,7 +17340,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -17343,7 +17351,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -17354,7 +17362,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -17365,7 +17373,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -17376,7 +17384,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -17387,7 +17395,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -17398,7 +17406,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -17409,7 +17417,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -17420,7 +17428,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -17431,7 +17439,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -17442,7 +17450,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -17453,7 +17461,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -17464,7 +17472,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -17475,7 +17483,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -17486,7 +17494,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -17497,7 +17505,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -17508,7 +17516,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -17519,7 +17527,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -17530,7 +17538,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -17541,7 +17549,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -17552,7 +17560,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -17563,7 +17571,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -17574,7 +17582,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -17585,7 +17593,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -17596,7 +17604,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1298</v>
       </c>
@@ -17607,7 +17615,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1298</v>
       </c>
@@ -17618,7 +17626,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1298</v>
       </c>
@@ -17629,7 +17637,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1305</v>
       </c>
@@ -17640,7 +17648,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1305</v>
       </c>
@@ -17651,7 +17659,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -17662,7 +17670,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -17673,7 +17681,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -17684,7 +17692,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -17695,7 +17703,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -17706,7 +17714,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -17717,7 +17725,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -17728,7 +17736,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -17739,7 +17747,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -17750,7 +17758,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>163</v>
       </c>
@@ -17761,7 +17769,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -17772,7 +17780,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -17783,7 +17791,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -17794,7 +17802,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>311</v>
       </c>
@@ -17805,7 +17813,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>311</v>
       </c>
@@ -17816,7 +17824,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -17827,7 +17835,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -17838,7 +17846,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -17849,7 +17857,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -17860,7 +17868,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -17871,7 +17879,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -17882,7 +17890,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -17893,7 +17901,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -17904,7 +17912,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>311</v>
       </c>
@@ -17915,7 +17923,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -17926,7 +17934,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -17937,7 +17945,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -17948,7 +17956,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -17959,7 +17967,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -17970,7 +17978,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -17981,7 +17989,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>355</v>
       </c>
@@ -17992,7 +18000,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>355</v>
       </c>
@@ -18003,7 +18011,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>355</v>
       </c>
@@ -18014,7 +18022,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -18025,7 +18033,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -18036,7 +18044,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -18047,7 +18055,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>355</v>
       </c>
@@ -18058,7 +18066,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>399</v>
       </c>
@@ -18069,7 +18077,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -18080,7 +18088,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>399</v>
       </c>
@@ -18091,7 +18099,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>399</v>
       </c>
@@ -18102,7 +18110,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>399</v>
       </c>
@@ -18113,7 +18121,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>399</v>
       </c>
@@ -18124,7 +18132,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -18135,7 +18143,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -18146,7 +18154,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>399</v>
       </c>
@@ -18157,7 +18165,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>399</v>
       </c>
@@ -18168,7 +18176,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -18179,7 +18187,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>399</v>
       </c>
@@ -18190,7 +18198,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>399</v>
       </c>
@@ -18201,7 +18209,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>399</v>
       </c>
@@ -18212,7 +18220,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>443</v>
       </c>
@@ -18223,7 +18231,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>443</v>
       </c>
@@ -18234,7 +18242,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>443</v>
       </c>
@@ -18245,7 +18253,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>443</v>
       </c>
@@ -18256,7 +18264,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>443</v>
       </c>
@@ -18267,7 +18275,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>267</v>
       </c>
@@ -18278,7 +18286,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>267</v>
       </c>
@@ -18289,7 +18297,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>267</v>
       </c>
@@ -18300,7 +18308,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -18311,7 +18319,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -18322,7 +18330,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>267</v>
       </c>
@@ -18333,7 +18341,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -18344,7 +18352,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>267</v>
       </c>
@@ -18355,7 +18363,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>267</v>
       </c>
@@ -18366,7 +18374,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>267</v>
       </c>
@@ -18377,7 +18385,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>267</v>
       </c>
@@ -18388,7 +18396,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -18399,7 +18407,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>487</v>
       </c>
@@ -18410,7 +18418,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>487</v>
       </c>
@@ -18421,7 +18429,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>487</v>
       </c>
@@ -18432,7 +18440,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>487</v>
       </c>
@@ -18443,7 +18451,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>487</v>
       </c>
@@ -18454,7 +18462,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>487</v>
       </c>
@@ -18465,7 +18473,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>487</v>
       </c>
@@ -18476,7 +18484,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>487</v>
       </c>
@@ -18487,7 +18495,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>487</v>
       </c>
@@ -18498,7 +18506,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>487</v>
       </c>
@@ -18509,7 +18517,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>487</v>
       </c>
@@ -18520,7 +18528,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>487</v>
       </c>
@@ -18531,7 +18539,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>487</v>
       </c>
@@ -18542,7 +18550,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>487</v>
       </c>
@@ -18553,7 +18561,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>487</v>
       </c>
@@ -18564,7 +18572,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>487</v>
       </c>
@@ -18575,7 +18583,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>487</v>
       </c>
@@ -18586,7 +18594,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>531</v>
       </c>
@@ -18597,7 +18605,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>531</v>
       </c>
@@ -18608,7 +18616,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>531</v>
       </c>
@@ -18619,7 +18627,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>531</v>
       </c>
@@ -18630,7 +18638,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>531</v>
       </c>
@@ -18641,7 +18649,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>531</v>
       </c>
@@ -18652,7 +18660,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>531</v>
       </c>
@@ -18663,7 +18671,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>531</v>
       </c>
@@ -18674,7 +18682,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>531</v>
       </c>
@@ -18685,7 +18693,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>531</v>
       </c>
@@ -18696,7 +18704,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>531</v>
       </c>
@@ -18707,7 +18715,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>531</v>
       </c>
@@ -18718,7 +18726,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>531</v>
       </c>
@@ -18729,7 +18737,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>531</v>
       </c>
@@ -18740,7 +18748,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>531</v>
       </c>
@@ -18751,7 +18759,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>531</v>
       </c>
@@ -18762,7 +18770,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>531</v>
       </c>
@@ -18773,7 +18781,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>531</v>
       </c>
@@ -18784,7 +18792,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>531</v>
       </c>
@@ -18795,7 +18803,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>531</v>
       </c>
@@ -18806,7 +18814,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>531</v>
       </c>
@@ -18817,7 +18825,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>531</v>
       </c>
@@ -18828,7 +18836,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>531</v>
       </c>
@@ -18839,7 +18847,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>531</v>
       </c>
@@ -18850,7 +18858,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>531</v>
       </c>
@@ -18861,7 +18869,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>531</v>
       </c>
@@ -18872,7 +18880,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>531</v>
       </c>
@@ -18883,7 +18891,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>531</v>
       </c>
@@ -18894,7 +18902,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>531</v>
       </c>
@@ -18905,7 +18913,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>531</v>
       </c>
@@ -18916,7 +18924,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>531</v>
       </c>
@@ -18927,7 +18935,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>531</v>
       </c>
@@ -18938,7 +18946,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>531</v>
       </c>
@@ -18949,7 +18957,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>531</v>
       </c>
@@ -18960,7 +18968,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>531</v>
       </c>
@@ -18971,7 +18979,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>531</v>
       </c>
@@ -18982,7 +18990,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>531</v>
       </c>
@@ -18993,7 +19001,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>531</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>531</v>
       </c>
@@ -19015,7 +19023,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>531</v>
       </c>
@@ -19026,7 +19034,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>531</v>
       </c>
@@ -19037,7 +19045,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>531</v>
       </c>
@@ -19048,7 +19056,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>531</v>
       </c>
@@ -19059,7 +19067,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>531</v>
       </c>
@@ -19070,7 +19078,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>531</v>
       </c>
@@ -19081,7 +19089,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>531</v>
       </c>
@@ -19092,7 +19100,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>531</v>
       </c>
@@ -19103,7 +19111,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>531</v>
       </c>
@@ -19114,7 +19122,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>531</v>
       </c>
@@ -19125,7 +19133,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>575</v>
       </c>
@@ -19136,7 +19144,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>575</v>
       </c>
@@ -19147,7 +19155,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>575</v>
       </c>
@@ -19158,7 +19166,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>575</v>
       </c>
@@ -19169,7 +19177,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>575</v>
       </c>
@@ -19180,7 +19188,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>575</v>
       </c>
@@ -19191,7 +19199,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>575</v>
       </c>
@@ -19202,7 +19210,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>575</v>
       </c>
@@ -19213,7 +19221,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>575</v>
       </c>
@@ -19224,7 +19232,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>575</v>
       </c>
@@ -19235,7 +19243,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>575</v>
       </c>
@@ -19246,7 +19254,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>575</v>
       </c>
@@ -19257,7 +19265,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1560</v>
       </c>
@@ -19271,7 +19279,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1560</v>
       </c>
@@ -19285,7 +19293,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1560</v>
       </c>
@@ -19299,7 +19307,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1560</v>
       </c>
@@ -19313,7 +19321,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1560</v>
       </c>
@@ -19327,7 +19335,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1560</v>
       </c>
@@ -19341,7 +19349,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1560</v>
       </c>
@@ -19355,7 +19363,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1560</v>
       </c>
@@ -19369,7 +19377,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1577</v>
       </c>
@@ -19383,7 +19391,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1577</v>
       </c>
@@ -19397,7 +19405,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1577</v>
       </c>
@@ -19411,7 +19419,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1577</v>
       </c>
@@ -19425,7 +19433,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1577</v>
       </c>
@@ -19439,7 +19447,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1577</v>
       </c>
@@ -19453,7 +19461,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1577</v>
       </c>
@@ -19467,7 +19475,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1577</v>
       </c>
@@ -19481,7 +19489,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1577</v>
       </c>
@@ -19495,7 +19503,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1577</v>
       </c>
@@ -19509,7 +19517,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1577</v>
       </c>
@@ -19523,7 +19531,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1577</v>
       </c>
@@ -19537,7 +19545,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1602</v>
       </c>
@@ -19551,7 +19559,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1602</v>
       </c>
@@ -19565,7 +19573,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1602</v>
       </c>
@@ -19579,7 +19587,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1602</v>
       </c>
@@ -19593,7 +19601,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1602</v>
       </c>
@@ -19607,7 +19615,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1602</v>
       </c>
@@ -19621,7 +19629,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1602</v>
       </c>
@@ -19635,7 +19643,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1617</v>
       </c>
@@ -19649,7 +19657,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1617</v>
       </c>
@@ -19663,7 +19671,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1617</v>
       </c>
@@ -19677,7 +19685,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1617</v>
       </c>
@@ -19691,7 +19699,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1617</v>
       </c>
@@ -19705,7 +19713,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1617</v>
       </c>
@@ -19719,7 +19727,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1617</v>
       </c>
@@ -19733,7 +19741,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1617</v>
       </c>
@@ -19747,7 +19755,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1634</v>
       </c>
@@ -19761,7 +19769,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1634</v>
       </c>
@@ -19775,7 +19783,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1634</v>
       </c>
@@ -19789,7 +19797,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1634</v>
       </c>
@@ -19803,7 +19811,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1634</v>
       </c>
@@ -19817,7 +19825,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1634</v>
       </c>
@@ -19831,7 +19839,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1634</v>
       </c>
@@ -19845,7 +19853,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1634</v>
       </c>
@@ -19859,7 +19867,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1634</v>
       </c>
@@ -19873,7 +19881,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1634</v>
       </c>
@@ -19887,7 +19895,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1634</v>
       </c>
@@ -19901,7 +19909,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1657</v>
       </c>
@@ -19915,7 +19923,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1657</v>
       </c>
@@ -19929,7 +19937,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1657</v>
       </c>
@@ -19943,7 +19951,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1657</v>
       </c>
@@ -19957,7 +19965,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1657</v>
       </c>
@@ -19971,7 +19979,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1657</v>
       </c>
@@ -19985,7 +19993,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1657</v>
       </c>
@@ -19999,7 +20007,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1657</v>
       </c>
@@ -20013,7 +20021,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1657</v>
       </c>
@@ -20027,7 +20035,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1676</v>
       </c>
@@ -20041,7 +20049,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1678</v>
       </c>
@@ -20055,7 +20063,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1678</v>
       </c>
@@ -20069,7 +20077,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1678</v>
       </c>
@@ -20083,7 +20091,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1678</v>
       </c>
@@ -20097,7 +20105,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1678</v>
       </c>
@@ -20111,7 +20119,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1678</v>
       </c>
@@ -20125,7 +20133,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1678</v>
       </c>
@@ -20139,7 +20147,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1678</v>
       </c>
@@ -20153,7 +20161,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1678</v>
       </c>
@@ -20167,7 +20175,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1697</v>
       </c>
@@ -20181,7 +20189,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1697</v>
       </c>
@@ -20195,7 +20203,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1697</v>
       </c>
@@ -20209,7 +20217,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1697</v>
       </c>
@@ -20223,7 +20231,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1697</v>
       </c>
@@ -20237,7 +20245,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1697</v>
       </c>
@@ -20251,7 +20259,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1710</v>
       </c>
@@ -20265,7 +20273,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1710</v>
       </c>
@@ -20279,7 +20287,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1710</v>
       </c>
@@ -20293,7 +20301,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1710</v>
       </c>
@@ -20307,7 +20315,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1710</v>
       </c>
@@ -20321,7 +20329,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1710</v>
       </c>
@@ -20335,7 +20343,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1710</v>
       </c>
@@ -20349,7 +20357,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1710</v>
       </c>
@@ -20363,7 +20371,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1710</v>
       </c>
@@ -20377,7 +20385,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1729</v>
       </c>
@@ -20391,7 +20399,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1729</v>
       </c>
@@ -20405,7 +20413,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1729</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1729</v>
       </c>
@@ -20433,7 +20441,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1729</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1729</v>
       </c>
@@ -20461,7 +20469,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1729</v>
       </c>
@@ -20475,7 +20483,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1729</v>
       </c>
@@ -20489,7 +20497,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1729</v>
       </c>
@@ -20503,7 +20511,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1729</v>
       </c>
@@ -20517,7 +20525,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1729</v>
       </c>
@@ -20531,7 +20539,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1729</v>
       </c>
@@ -20545,7 +20553,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1754</v>
       </c>
@@ -20559,7 +20567,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1754</v>
       </c>
@@ -20573,7 +20581,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1754</v>
       </c>
@@ -20587,7 +20595,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1754</v>
       </c>
@@ -20601,7 +20609,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1754</v>
       </c>
@@ -20615,7 +20623,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1754</v>
       </c>
@@ -20629,7 +20637,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1754</v>
       </c>
@@ -20643,7 +20651,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1754</v>
       </c>
@@ -20657,7 +20665,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1754</v>
       </c>
@@ -20671,7 +20679,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1754</v>
       </c>
@@ -20685,7 +20693,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1754</v>
       </c>
@@ -20699,7 +20707,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1754</v>
       </c>
@@ -20713,7 +20721,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1754</v>
       </c>
@@ -20727,7 +20735,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1781</v>
       </c>
@@ -20741,7 +20749,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1781</v>
       </c>
@@ -20755,7 +20763,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1781</v>
       </c>
@@ -20769,7 +20777,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1781</v>
       </c>
@@ -20783,7 +20791,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1781</v>
       </c>
@@ -20797,7 +20805,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1781</v>
       </c>
@@ -20811,7 +20819,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1781</v>
       </c>
@@ -20825,7 +20833,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1781</v>
       </c>
@@ -20839,7 +20847,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1781</v>
       </c>
@@ -20853,7 +20861,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1781</v>
       </c>
@@ -20867,7 +20875,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1802</v>
       </c>
@@ -20881,7 +20889,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1802</v>
       </c>
@@ -20895,7 +20903,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1802</v>
       </c>
@@ -20909,7 +20917,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1802</v>
       </c>
@@ -20923,7 +20931,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1802</v>
       </c>
@@ -20937,7 +20945,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1802</v>
       </c>
@@ -20951,7 +20959,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1802</v>
       </c>
@@ -20965,7 +20973,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1802</v>
       </c>
@@ -20979,7 +20987,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1802</v>
       </c>
@@ -20993,7 +21001,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1821</v>
       </c>
@@ -21007,7 +21015,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1821</v>
       </c>
@@ -21021,7 +21029,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1821</v>
       </c>
@@ -21035,7 +21043,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1821</v>
       </c>
@@ -21049,7 +21057,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1821</v>
       </c>
@@ -21063,7 +21071,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1821</v>
       </c>
@@ -21077,7 +21085,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1821</v>
       </c>
@@ -21091,7 +21099,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1821</v>
       </c>
@@ -21105,7 +21113,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1821</v>
       </c>
@@ -21119,7 +21127,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1821</v>
       </c>
@@ -21133,7 +21141,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1821</v>
       </c>
@@ -21147,7 +21155,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1844</v>
       </c>
@@ -21158,7 +21166,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1844</v>
       </c>
@@ -21169,7 +21177,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1844</v>
       </c>
@@ -21180,7 +21188,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1844</v>
       </c>
@@ -21191,7 +21199,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1844</v>
       </c>
@@ -21202,7 +21210,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1844</v>
       </c>
@@ -21213,7 +21221,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1844</v>
       </c>
@@ -21224,7 +21232,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1844</v>
       </c>
@@ -21235,7 +21243,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1844</v>
       </c>
@@ -21246,7 +21254,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1844</v>
       </c>
@@ -21257,7 +21265,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1844</v>
       </c>
@@ -21268,7 +21276,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1844</v>
       </c>
@@ -21279,7 +21287,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1844</v>
       </c>
@@ -21290,7 +21298,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1844</v>
       </c>
@@ -21301,7 +21309,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1844</v>
       </c>
@@ -21312,7 +21320,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1859</v>
       </c>
@@ -21323,7 +21331,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1859</v>
       </c>
@@ -21334,7 +21342,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1859</v>
       </c>
@@ -21345,7 +21353,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1859</v>
       </c>
@@ -21356,7 +21364,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1859</v>
       </c>
@@ -21367,7 +21375,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1859</v>
       </c>
@@ -21378,7 +21386,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1859</v>
       </c>
@@ -21389,7 +21397,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1859</v>
       </c>
@@ -21400,7 +21408,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1859</v>
       </c>
@@ -21411,7 +21419,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1859</v>
       </c>
@@ -21422,7 +21430,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1859</v>
       </c>
@@ -21433,7 +21441,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1859</v>
       </c>
@@ -21444,7 +21452,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1859</v>
       </c>
@@ -21455,7 +21463,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1859</v>
       </c>
@@ -21466,7 +21474,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1859</v>
       </c>
@@ -21488,9 +21496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1888</v>
       </c>
@@ -21498,7 +21506,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1209</v>
       </c>
